--- a/仕様書/何のゲーム作る？.xlsx
+++ b/仕様書/何のゲーム作る？.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -205,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +218,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -486,8 +492,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,15 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,11 +529,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -541,7 +551,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -583,7 +593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,7 +628,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -830,7 +840,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -848,235 +858,235 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/仕様書/何のゲーム作る？.xlsx
+++ b/仕様書/何のゲーム作る？.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -29,10 +29,6 @@
   </si>
   <si>
     <t>スクロールシューター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TPS</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -41,147 +37,154 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>対戦アクションゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦型格闘ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステルスゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンティングアクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンドレスランナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドベンチャーゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストアドベンチャー（インタラクティブフィクション）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクションアドベンチャーゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジュアルノベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱出ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サバイバルホラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウォーキングシミュレーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロールプレイングゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハックアンドスラッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローグライクゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョンRPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルトークRPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクションRPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MORPG/MMORPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードバトルRPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズルゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ち物パズル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチ3ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペンシルパズル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人称パズル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレーションゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン制ストラテジー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルタイムストラテジー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タワーディフェンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経営シミュレーションゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4X game</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歴史シミュレーションゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育成シミュレーションゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音楽ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リズムアクションゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>プラットフォーマー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対戦アクションゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対戦型格闘ゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステルスゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハンティングアクション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エンドレスランナー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アドベンチャーゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストアドベンチャー（インタラクティブフィクション）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクションアドベンチャーゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビジュアルノベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>脱出ゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サバイバルホラー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウォーキングシミュレーター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロールプレイングゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハックアンドスラッシュ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ローグライクゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダンジョンRPG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブルトークRPG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクションRPG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MORPG/MMORPG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カードバトルRPG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズルゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>落ち物パズル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マッチ3ゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ペンシルパズル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一人称パズル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シミュレーションゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターン制ストラテジー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リアルタイムストラテジー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タワーディフェンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経営シミュレーションゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4X game</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歴史シミュレーションゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>育成シミュレーションゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>音楽ゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リズムアクションゲーム</t>
+  </si>
+  <si>
+    <t>プラットフォーマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TPS</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -189,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +207,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -492,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -508,6 +526,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,10 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -551,7 +570,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -593,7 +612,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,7 +647,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,21 +877,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
@@ -880,213 +899,218 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="10" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18" t="s">
+      <c r="D8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="18" t="s">
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18" t="s">
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="8"/>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="9"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/仕様書/何のゲーム作る？.xlsx
+++ b/仕様書/何のゲーム作る？.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ジャンル" sheetId="1" r:id="rId1"/>
+    <sheet name="プラットフォーマー" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -185,6 +186,24 @@
   </si>
   <si>
     <t>TPS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謎解き</t>
+    <rPh sb="0" eb="2">
+      <t>ナゾト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I wanna be the guy風</t>
+    <rPh sb="18" eb="19">
+      <t>フウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -530,6 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,7 +571,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -858,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,10 +896,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -890,8 +909,8 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
@@ -899,8 +918,8 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="10" t="s">
         <v>42</v>
       </c>
@@ -908,11 +927,11 @@
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -921,8 +940,8 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
@@ -932,8 +951,8 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
@@ -943,8 +962,8 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -956,8 +975,8 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
@@ -967,8 +986,8 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
@@ -978,8 +997,8 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -993,8 +1012,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
@@ -1004,8 +1023,8 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
@@ -1015,8 +1034,8 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1028,8 +1047,8 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
@@ -1037,8 +1056,8 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="9" t="s">
         <v>28</v>
       </c>
@@ -1046,8 +1065,8 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1061,8 +1080,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
@@ -1072,8 +1091,8 @@
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="17" t="s">
         <v>33</v>
       </c>
@@ -1083,8 +1102,8 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1094,15 +1113,15 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="8"/>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="9"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -1127,4 +1146,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>